--- a/data/trans_camb/KIDM_A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_A_R-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-3,2</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,25</t>
+          <t>-27,68; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,4</t>
+          <t>-13,66; 24,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 3,62</t>
+          <t>-27,72; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 5,24</t>
+          <t>0,0; 27,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,69</t>
+          <t>-10,01; 5,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,74</t>
+          <t>-6,44; 14,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,75</t>
+          <t>-17,89; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-53,25%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,54%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,49%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>-10,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-46,29%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-14,83%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 561,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 374,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-89,53; 104,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,4; 291,73</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,76</t>
+          <t>-2,34; 7,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,57</t>
+          <t>-5,53; 1,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,32</t>
+          <t>-4,4; 3,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 5,35</t>
+          <t>-2,26; 5,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 0,61</t>
+          <t>-3,83; 1,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 2,92</t>
+          <t>-3,21; 4,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,83</t>
+          <t>-0,98; 4,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,86</t>
+          <t>-3,29; 0,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,47</t>
+          <t>-2,86; 2,75</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-53,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>55,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-73,73%</t>
+          <t>-36,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-49,4%</t>
+          <t>-27,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>147,21%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-46,18%</t>
+          <t>-46,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>-14,83%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,72; 561,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 1348,08</t>
+          <t>-39,01; 374,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,53; 104,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,4; 291,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-0,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 0,0</t>
+          <t>-2,31; 4,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 24,53</t>
+          <t>-3,31; 2,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 0,0</t>
+          <t>-5,52; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,21</t>
+          <t>-2,34; 5,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 8,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 1,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 5,87</t>
+          <t>-1,67; 3,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 14,49</t>
+          <t>-0,76; 4,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 0,0</t>
+          <t>-3,32; 0,4</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>65,68%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-5,01%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>24,1%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>322,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-10,17%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>159,35%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-68,89%</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,63; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>0,71</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,46</t>
+          <t>0,77; 7,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,1</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 0,0</t>
+          <t>0,0; 8,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 5,18</t>
+          <t>-4,02; 5,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 8,73</t>
+          <t>-7,23; 0,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,51</t>
+          <t>-5,91; 2,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,39</t>
+          <t>-0,74; 4,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,89</t>
+          <t>-2,87; 0,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,4</t>
+          <t>-1,84; 3,47</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>322,33%</t>
+          <t>-73,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-34,82%</t>
+          <t>-49,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>147,21%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>159,35%</t>
+          <t>-46,18%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-68,89%</t>
+          <t>26,24%</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,7; 1348,08</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-66,63; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">

--- a/data/trans_camb/KIDM_A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_A_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 0,0</t>
+          <t>-33,88; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 24,53</t>
+          <t>-13,51; 25,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 0,0</t>
+          <t>-33,33; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,21</t>
+          <t>0,0; 27,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 5,87</t>
+          <t>-9,71; 5,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 14,49</t>
+          <t>-6,44; 14,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 0,0</t>
+          <t>-14,28; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 8,87</t>
+          <t>-3,17; 9,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 7,26</t>
+          <t>-4,41; 8,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 0,0</t>
+          <t>-9,41; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 6,69</t>
+          <t>-6,79; 7,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 0,0</t>
+          <t>-10,67; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 4,73</t>
+          <t>-6,92; 4,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 6,17</t>
+          <t>-3,07; 6,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 2,65</t>
+          <t>-5,31; 2,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,88</t>
+          <t>-6,67; 0,25</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-73,21; 529,9</t>
+          <t>-72,61; 570,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,25</t>
+          <t>-2,19; 7,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,4</t>
+          <t>-5,35; 1,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 3,62</t>
+          <t>-4,28; 3,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 5,24</t>
+          <t>-1,89; 5,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 1,42</t>
+          <t>-3,78; 1,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,2</t>
+          <t>-3,1; 4,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,69</t>
+          <t>-1,07; 4,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,74</t>
+          <t>-3,58; 0,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,75</t>
+          <t>-3,07; 2,35</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 561,64</t>
+          <t>-59,09; 661,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 374,08</t>
+          <t>-35,68; 396,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-89,53; 104,86</t>
+          <t>-91,03; 93,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,4; 291,73</t>
+          <t>-85,43; 206,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,46</t>
+          <t>-2,37; 4,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,1</t>
+          <t>-3,35; 2,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 0,0</t>
+          <t>-4,85; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 5,18</t>
+          <t>-2,3; 4,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 8,73</t>
+          <t>-0,44; 8,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,51</t>
+          <t>-4,48; 1,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,39</t>
+          <t>-1,21; 3,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,89</t>
+          <t>-0,81; 4,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,4</t>
+          <t>-3,4; 0,36</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,63; —</t>
+          <t>-75,72; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,76</t>
+          <t>0,76; 7,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,57</t>
+          <t>0,0; 4,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,32</t>
+          <t>0,0; 9,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 5,35</t>
+          <t>-4,06; 5,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 0,61</t>
+          <t>-6,97; 0,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 2,92</t>
+          <t>-5,83; 2,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,83</t>
+          <t>-0,75; 5,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,86</t>
+          <t>-2,93; 0,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,47</t>
+          <t>-2,21; 3,31</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 1348,08</t>
+          <t>-55,24; 1042,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,19</t>
+          <t>-0,29; 4,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,78</t>
+          <t>-1,79; 1,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,26</t>
+          <t>-2,28; 1,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,4</t>
+          <t>-1,07; 3,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,09</t>
+          <t>-2,42; 1,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,22</t>
+          <t>-2,75; 1,07</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,07</t>
+          <t>-0,13; 3,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,94</t>
+          <t>-1,68; 1,01</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,52</t>
+          <t>-2,01; 0,61</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 420,69</t>
+          <t>-17,89; 404,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-70,92; 220,32</t>
+          <t>-69,02; 181,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-86,73; 158,78</t>
+          <t>-84,54; 134,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 264,52</t>
+          <t>-39,67; 249,09</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 113,65</t>
+          <t>-76,26; 116,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-88,55; 116,54</t>
+          <t>-88,43; 125,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 215,25</t>
+          <t>-11,18; 219,62</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-59,17; 83,19</t>
+          <t>-61,49; 89,51</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-74,61; 43,36</t>
+          <t>-75,47; 53,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_A_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,88; 0,0</t>
+          <t>-33,69; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 25,17</t>
+          <t>-18,45; 25,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 0,0</t>
+          <t>-37,64; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,93</t>
+          <t>0,0; 33,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 5,91</t>
+          <t>-12,56; 5,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 14,33</t>
+          <t>-6,4; 15,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 0,0</t>
+          <t>-15,9; 0,0</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 9,13</t>
+          <t>-3,15; 9,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 8,63</t>
+          <t>-4,87; 7,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 0,0</t>
+          <t>-8,79; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 7,11</t>
+          <t>-6,85; 6,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 0,0</t>
+          <t>-11,99; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 4,77</t>
+          <t>-8,48; 4,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 6,1</t>
+          <t>-3,47; 6,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 2,39</t>
+          <t>-5,36; 2,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 0,25</t>
+          <t>-5,96; 0,95</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,61; 570,26</t>
+          <t>-77,76; 571,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 7,3</t>
+          <t>-2,14; 7,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 1,4</t>
+          <t>-5,35; 1,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,36</t>
+          <t>-4,28; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,29</t>
+          <t>-2,29; 5,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 1,76</t>
+          <t>-3,66; 1,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,34</t>
+          <t>-3,11; 4,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,75</t>
+          <t>-1,12; 4,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,89</t>
+          <t>-3,49; 0,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,35</t>
+          <t>-2,99; 2,44</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 661,05</t>
+          <t>-60,28; 759,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 409,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,68; 396,9</t>
+          <t>-38,65; 417,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-91,03; 93,08</t>
+          <t>-90,5; 121,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-85,43; 206,59</t>
+          <t>-84,76; 255,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,35</t>
+          <t>-2,49; 3,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,09</t>
+          <t>-3,27; 2,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,0</t>
+          <t>-5,43; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,48</t>
+          <t>-2,34; 4,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,98</t>
+          <t>-0,37; 9,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,51</t>
+          <t>-4,55; 1,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,43</t>
+          <t>-1,69; 3,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,5</t>
+          <t>-0,94; 4,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,36</t>
+          <t>-3,25; 0,46</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-75,72; —</t>
+          <t>-83,78; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,69</t>
+          <t>0,78; 7,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,43</t>
+          <t>0,0; 3,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0,0; 10,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 5,42</t>
+          <t>-4,26; 5,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 0,76</t>
+          <t>-6,93; 0,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 2,98</t>
+          <t>-5,8; 2,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,08</t>
+          <t>-0,54; 4,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,87</t>
+          <t>-2,85; 0,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,31</t>
+          <t>-1,73; 3,79</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 597,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-55,24; 1042,35</t>
+          <t>-42,98; 1113,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,02</t>
+          <t>-0,24; 3,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,81</t>
+          <t>-1,9; 1,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,37</t>
+          <t>-2,24; 1,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,44</t>
+          <t>-1,27; 3,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,17</t>
+          <t>-2,54; 1,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,07</t>
+          <t>-2,84; 1,08</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,02</t>
+          <t>-0,05; 2,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,01</t>
+          <t>-1,51; 1,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,61</t>
+          <t>-1,96; 0,68</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 404,21</t>
+          <t>-17,77; 430,5</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,02; 181,8</t>
+          <t>-71,13; 205,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-84,54; 134,46</t>
+          <t>-85,18; 226,53</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 249,09</t>
+          <t>-43,26; 241,09</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-76,26; 116,03</t>
+          <t>-74,99; 99,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-88,43; 125,18</t>
+          <t>-87,61; 113,47</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 219,62</t>
+          <t>-1,95; 220,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 89,51</t>
+          <t>-58,28; 91,02</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 53,77</t>
+          <t>-73,69; 56,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_A_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-2,3</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 0,0</t>
+          <t>-3,75; 7,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 25,4</t>
+          <t>-9,0; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 0,0</t>
+          <t>-5,25; 4,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,99</t>
+          <t>-5,13; 6,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,6; 7,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,3; -1,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 5,91</t>
+          <t>-2,65; 5,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 15,06</t>
+          <t>-5,0; 2,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 0,0</t>
+          <t>-5,49; 0,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>58,32%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>24,1%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>-23,53%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18,73%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23,01%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,17%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>-28,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-74,67%</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,95; 366,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 206,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 9,5</t>
+          <t>-2,26; 5,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 7,95</t>
+          <t>-3,83; 1,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 0,0</t>
+          <t>-3,21; 4,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 6,95</t>
+          <t>-2,34; 7,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 0,0</t>
+          <t>-5,53; 1,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 4,32</t>
+          <t>-4,4; 3,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 6,03</t>
+          <t>-0,98; 4,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,4</t>
+          <t>-3,29; 0,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,95</t>
+          <t>-2,85; 2,8</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>55,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>-36,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-22,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-53,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-44,57%</t>
+          <t>-16,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,23%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-44,1%</t>
+          <t>-46,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-73,08%</t>
+          <t>-12,33%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,72; 561,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,76; 571,94</t>
+          <t>-39,01; 374,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,53; 104,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,93; 296,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 7,25</t>
+          <t>-2,34; 5,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 1,27</t>
+          <t>-0,47; 8,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,66</t>
+          <t>-4,41; 1,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,18</t>
+          <t>-2,31; 4,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,71</t>
+          <t>-3,31; 2,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,07</t>
+          <t>-5,52; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,74</t>
+          <t>-1,67; 3,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,92</t>
+          <t>-0,76; 4,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,44</t>
+          <t>-3,34; 0,38</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-53,25%</t>
+          <t>322,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,54%</t>
+          <t>-49,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>55,49%</t>
+          <t>65,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-36,37%</t>
+          <t>-5,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-27,85%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-46,29%</t>
+          <t>159,35%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-14,83%</t>
+          <t>-73,0%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,28; 759,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 409,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 417,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-90,5; 121,75</t>
+          <t>-66,63; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-84,76; 255,33</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,71</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,63</t>
+          <t>-4,02; 5,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,1</t>
+          <t>-7,23; 0,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 0,0</t>
+          <t>-5,88; 3,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,43</t>
+          <t>0,77; 7,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 9,33</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 1,51</t>
+          <t>0,0; 7,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,35</t>
+          <t>-0,74; 4,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,6</t>
+          <t>-2,87; 0,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,46</t>
+          <t>-1,85; 3,48</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>-73,73%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-46,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>322,33%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-34,82%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>147,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>159,35%</t>
+          <t>-46,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-68,89%</t>
+          <t>26,21%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,7; 1348,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,78; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,7</t>
+          <t>-1,09; 3,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,96</t>
+          <t>-2,38; 1,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,03</t>
+          <t>-3,01; 1,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 5,28</t>
+          <t>-0,13; 4,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,61</t>
+          <t>-1,9; 1,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,9</t>
+          <t>-2,4; 1,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,81</t>
+          <t>0,03; 3,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,72</t>
+          <t>-1,51; 0,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,79</t>
+          <t>-2,0; 0,49</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>48,82%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-27,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-41,63%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-73,73%</t>
+          <t>-8,77%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-49,4%</t>
+          <t>-29,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>147,21%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-46,18%</t>
+          <t>-18,59%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>-35,87%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,98; 264,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,52; 113,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,22; 93,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 597,82</t>
+          <t>-17,51; 420,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,92; 220,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,42; 183,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-42,98; 1113,23</t>
+          <t>-4,07; 215,25</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,17; 83,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,45; 39,03</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 3,99</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,9; 1,76</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 1,44</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 3,07</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 1,0</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 1,08</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 2,87</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 1,05</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 0,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>95,51%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-8,77%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-27,9%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>48,82%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-27,49%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-39,82%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>71,27%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-18,59%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-33,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-17,77; 430,5</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-71,13; 205,21</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-85,18; 226,53</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-43,26; 241,09</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-74,99; 99,9</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-87,61; 113,47</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 220,57</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-58,28; 91,02</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-73,69; 56,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
